--- a/配置文档/地图相关/关卡刷怪相关/战役副本相关.xlsx
+++ b/配置文档/地图相关/关卡刷怪相关/战役副本相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="6465" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23565" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ChapterBase_战役基础数据" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="208">
   <si>
     <t>该表用于保存章节基本数据
 一个章节就是玩家可选的一个模式
@@ -207,8 +207,8 @@
   </si>
   <si>
     <t>关卡类型
-1 常规刷怪关
-2 点击奖励关</t>
+0 常规刷怪关
+1 点击奖励关</t>
   </si>
   <si>
     <t>关卡所用地图类型
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>WaveData</t>
+  </si>
+  <si>
+    <t>WaveData2</t>
   </si>
   <si>
     <t>WaveRandData</t>
@@ -1456,7 +1459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,9 +1499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,9 +1521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1954,13 +1951,13 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -1982,7 +1979,7 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="40"/>
+      <c r="T1" s="38"/>
       <c r="U1" s="8"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
@@ -2015,7 +2012,7 @@
       <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="22">
         <v>2</v>
       </c>
       <c r="I2" s="4">
@@ -2050,7 +2047,7 @@
       <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="22" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2118,7 +2115,7 @@
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
     </row>
-    <row r="5" s="37" customFormat="1" ht="77.25" spans="1:23">
+    <row r="5" s="35" customFormat="1" ht="77.25" spans="1:23">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2143,7 +2140,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="37" t="str">
+      <c r="I5" s="35" t="str">
         <f>_xlfn.DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</f>
         <v>=DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</v>
       </c>
@@ -2165,119 +2162,119 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="1:23">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="W6" s="26"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="W6" s="24"/>
     </row>
     <row r="7" ht="14.25" spans="1:23">
-      <c r="A7" s="39"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="W7" s="26"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="W7" s="24"/>
     </row>
     <row r="8" ht="14.25" spans="1:23">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="W8" s="26"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="W8" s="24"/>
     </row>
     <row r="9" ht="14.25" spans="1:23">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="W9" s="26"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="W9" s="24"/>
     </row>
     <row r="10" ht="14.25" spans="1:23">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="W10" s="26"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="W10" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2328,16 +2325,16 @@
       <c r="D1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="33" t="s">
         <v>40</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -2346,7 +2343,7 @@
       <c r="J1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2363,10 +2360,10 @@
       <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="24">
-        <v>2</v>
-      </c>
-      <c r="F2" s="24">
+      <c r="E2" s="22">
+        <v>2</v>
+      </c>
+      <c r="F2" s="22">
         <v>2</v>
       </c>
       <c r="G2" s="4">
@@ -2398,10 +2395,10 @@
       <c r="D3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2480,7 +2477,7 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>53</v>
       </c>
       <c r="J5" s="5">
@@ -2490,16 +2487,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" s="26" customFormat="1" ht="14.25"/>
-    <row r="7" s="26" customFormat="1" ht="14.25" spans="2:2">
-      <c r="B7" s="36"/>
-    </row>
-    <row r="8" s="26" customFormat="1" ht="14.25"/>
-    <row r="9" s="33" customFormat="1" ht="14.25" spans="2:2">
-      <c r="B9" s="26"/>
+    <row r="6" s="24" customFormat="1" ht="14.25"/>
+    <row r="7" s="24" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B7" s="34"/>
+    </row>
+    <row r="8" s="24" customFormat="1" ht="14.25"/>
+    <row r="9" s="31" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B9" s="24"/>
     </row>
     <row r="10" ht="14.25" spans="2:2">
-      <c r="B10" s="26"/>
+      <c r="B10" s="24"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2557,11 +2554,11 @@
       <c r="H1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" s="31" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="29" customFormat="1" ht="14.25" spans="1:9">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2574,23 +2571,23 @@
       <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="31">
-        <v>2</v>
-      </c>
-      <c r="F2" s="31">
-        <v>2</v>
-      </c>
-      <c r="G2" s="31">
-        <v>2</v>
-      </c>
-      <c r="H2" s="31">
+      <c r="E2" s="29">
+        <v>2</v>
+      </c>
+      <c r="F2" s="29">
+        <v>2</v>
+      </c>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29">
         <v>3</v>
       </c>
       <c r="I2" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="31" customFormat="1" ht="14.25" spans="1:9">
+    <row r="3" s="29" customFormat="1" ht="14.25" spans="1:9">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -2603,23 +2600,23 @@
       <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="29" t="s">
         <v>64</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" s="31" customFormat="1" ht="14.25" spans="1:9">
+    <row r="4" s="29" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -2664,13 +2661,13 @@
       <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="30" t="s">
         <v>69</v>
       </c>
       <c r="I5" s="5">
@@ -2678,7 +2675,7 @@
       </c>
     </row>
     <row r="6" ht="14.25" spans="9:9">
-      <c r="I6" s="20"/>
+      <c r="I6" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2706,34 +2703,34 @@
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="16.8416666666667" customWidth="1"/>
     <col min="4" max="5" width="17.0583333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.5833333333333" style="26" customWidth="1"/>
+    <col min="6" max="6" width="18.5833333333333" style="24" customWidth="1"/>
     <col min="7" max="7" width="34.7833333333333" customWidth="1"/>
     <col min="8" max="8" width="46.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="126" customHeight="1" spans="1:8">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="27" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2815,39 +2812,39 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" s="25" customFormat="1" spans="1:8">
-      <c r="A5" s="25">
-        <v>2</v>
-      </c>
-      <c r="B5" s="25">
+    <row r="5" s="23" customFormat="1" spans="1:8">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="25">
-        <v>2</v>
-      </c>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="23">
+        <v>2</v>
+      </c>
+      <c r="H5" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" s="26" customFormat="1"/>
-    <row r="7" s="20" customFormat="1"/>
-    <row r="8" s="26" customFormat="1"/>
-    <row r="9" s="26" customFormat="1"/>
-    <row r="10" s="26" customFormat="1"/>
-    <row r="11" s="26" customFormat="1"/>
-    <row r="12" s="26" customFormat="1"/>
+    <row r="6" s="24" customFormat="1"/>
+    <row r="7" s="19" customFormat="1"/>
+    <row r="8" s="24" customFormat="1"/>
+    <row r="9" s="24" customFormat="1"/>
+    <row r="10" s="24" customFormat="1"/>
+    <row r="11" s="24" customFormat="1"/>
+    <row r="12" s="24" customFormat="1"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
@@ -2864,8 +2861,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2875,7 +2872,7 @@
     <col min="3" max="3" width="28.125" customWidth="1"/>
     <col min="4" max="4" width="14.4583333333333" customWidth="1"/>
     <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="6" max="6" width="30.5833333333333" style="14" customWidth="1"/>
+    <col min="6" max="6" width="30.5833333333333" style="13" customWidth="1"/>
     <col min="7" max="7" width="27.125" customWidth="1"/>
     <col min="8" max="8" width="40.4333333333333" customWidth="1"/>
     <col min="9" max="9" width="42.7833333333333" customWidth="1"/>
@@ -2884,37 +2881,37 @@
   </cols>
   <sheetData>
     <row r="1" ht="137" customHeight="1" spans="1:11">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2943,8 +2940,10 @@
       <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24">
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="22">
         <v>2</v>
       </c>
       <c r="K2" s="11">
@@ -2976,12 +2975,14 @@
       <c r="H3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="J3" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="K3" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:11">
@@ -3009,7 +3010,9 @@
       <c r="H4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="J4" s="10" t="s">
         <v>66</v>
       </c>
@@ -3018,74 +3021,74 @@
       </c>
     </row>
     <row r="5" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="D5" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="19">
         <v>1</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>1</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20" t="s">
+      <c r="H5" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="19">
         <v>120</v>
       </c>
     </row>
-    <row r="6" s="13" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A6" s="22">
+    <row r="6" s="12" customFormat="1" ht="14.25" spans="1:11">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>1</v>
       </c>
-      <c r="C6" s="22">
-        <v>2</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="C6" s="19">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="19">
         <v>1</v>
       </c>
-      <c r="F6" s="22">
-        <v>2</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
+      <c r="H6" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="19">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4 I4 J4:K4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -3114,19 +3117,19 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="57" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:5">
@@ -3154,7 +3157,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
@@ -3188,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3227,19 +3230,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3250,13 +3253,13 @@
         <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3264,16 +3267,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3287,10 +3290,10 @@
         <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3298,16 +3301,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3315,16 +3318,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3336,10 +3339,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3347,16 +3350,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3364,16 +3367,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3384,13 +3387,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3398,16 +3401,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3415,16 +3418,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3432,13 +3435,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3446,10 +3449,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3457,10 +3460,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3468,10 +3471,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3479,10 +3482,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3490,10 +3493,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3501,10 +3504,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3512,10 +3515,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3523,10 +3526,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3537,7 +3540,7 @@
         <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3545,10 +3548,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3556,10 +3559,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3567,10 +3570,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3578,13 +3581,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>69</v>
@@ -3595,16 +3598,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3612,13 +3615,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>89</v>
@@ -3629,16 +3632,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3649,10 +3652,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3666,10 +3669,10 @@
         <v>90</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3677,16 +3680,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3694,16 +3697,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3711,16 +3714,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3731,13 +3734,13 @@
         <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3745,14 +3748,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3760,11 +3763,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3772,16 +3775,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/地图相关/关卡刷怪相关/战役副本相关.xlsx
+++ b/配置文档/地图相关/关卡刷怪相关/战役副本相关.xlsx
@@ -4,21 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23565" windowHeight="12255" activeTab="1"/>
+    <workbookView windowHeight="17655" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ChapterBase_战役基础数据" sheetId="1" r:id="rId1"/>
     <sheet name="cfg_ChapterCopyBase_战役关卡基础数据" sheetId="2" r:id="rId2"/>
-    <sheet name="cfg_CopyBrush_战役关卡刷怪数据" sheetId="7" r:id="rId3"/>
-    <sheet name="cfg_BrushPoint_刷怪点数据" sheetId="5" r:id="rId4"/>
-    <sheet name="cfg_WaveBase_波数配置" sheetId="6" r:id="rId5"/>
-    <sheet name="cfg_ChapterCopyUI_章节关卡UI数据" sheetId="4" r:id="rId6"/>
-    <sheet name="数据类型" sheetId="3" r:id="rId7"/>
+    <sheet name="cfg_CopyBuildLimit_关卡建造限制" sheetId="8" r:id="rId3"/>
+    <sheet name="cfg_ChapterCopyUI_章节关卡UI数据" sheetId="4" r:id="rId4"/>
+    <sheet name="数据类型" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="6">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="6">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="6">数据类型!$A$1:$E$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="4">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="4">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="4">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
   <si>
     <t>该表用于保存章节基本数据
 一个章节就是玩家可选的一个模式
@@ -192,6 +190,9 @@
     <t>#BASEVALUE</t>
   </si>
   <si>
+    <t>2o</t>
+  </si>
+  <si>
     <t>该表用于保存关卡基础数据
 数据不想填就写 #BASEVALUE</t>
   </si>
@@ -207,8 +208,7 @@
   </si>
   <si>
     <t>关卡类型
-0 常规刷怪关
-1 点击奖励关</t>
+0 常规刷怪关</t>
   </si>
   <si>
     <t>关卡所用地图类型
@@ -248,7 +248,7 @@
     <t>CopyUiId</t>
   </si>
   <si>
-    <t>CopyType</t>
+    <t>#CopyType</t>
   </si>
   <si>
     <t>MapType</t>
@@ -269,247 +269,32 @@
     <t>Vector2I</t>
   </si>
   <si>
-    <t>(4,4)</t>
-  </si>
-  <si>
-    <t>该表用于保存关卡刷怪基础数据
-刷怪是从第一波开始，
-关卡所有刷怪点统一使用一个关卡计数
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">关卡刷怪类型
-0 通用类型，造塔刷怪，
-且无玩家实体
-</t>
-  </si>
-  <si>
-    <t>总波数</t>
-  </si>
-  <si>
-    <t>刷怪默认时间
-（秒）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刷新前间隔时间列表
-(1,10) 表示第一波10秒后刷新
-不写默认为BrushSpace的秒数
-(波数，第一波间隔)|(波数，第二波间隔) 
-</t>
-  </si>
-  <si>
-    <t>刷怪点id列表
-cfg_BrushPoint_刷怪点表id</t>
-  </si>
-  <si>
-    <t>刷新完成后间隔时间
-单位帧 如果是最后一波
-该参数无效</t>
-  </si>
-  <si>
-    <t>AllWave</t>
-  </si>
-  <si>
-    <t>BrushSpace</t>
-  </si>
-  <si>
-    <t>BrushSpaceList</t>
-  </si>
-  <si>
-    <t>BrushIdList</t>
-  </si>
-  <si>
-    <t>WaveAfterTime</t>
-  </si>
-  <si>
-    <t>&lt;(INT)&gt;</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>(1,0)|(2,5)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>该表用于配置刷怪点
-关卡开始时，会遍历所有刷新点，
-并且遍历各刷怪点的刷怪波，
-设置各刷新点刷新时间
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>刷新点id
-同步另一个表
-cfg_Wave_刷怪波数</t>
-  </si>
-  <si>
-    <t>刷新点描述</t>
-  </si>
-  <si>
-    <t>刷新点边缘是否显示</t>
-  </si>
-  <si>
-    <t>刷新点坐标
-（坐标x,坐标y）</t>
-  </si>
-  <si>
-    <t>刷新波数id列表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刷新点形状:
-1，表示矩形刷新 (Widht,Height)
-2，表示圆形刷新 (Radiu)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刷新点形状参数:
- (都是以一个地图块的长度为单位)
-</t>
-  </si>
-  <si>
-    <t>BrushId</t>
-  </si>
-  <si>
-    <t>BrushDes</t>
-  </si>
-  <si>
-    <t>BrushShowType</t>
-  </si>
-  <si>
-    <t>BrushPos</t>
-  </si>
-  <si>
-    <t>WaveIdList</t>
-  </si>
-  <si>
-    <t>ShapeType</t>
-  </si>
-  <si>
-    <t>ShapeParame</t>
+    <t>(2,2)</t>
+  </si>
+  <si>
+    <t>限制建筑最高等级
+写5就是不限制</t>
+  </si>
+  <si>
+    <t>是否为挑战关卡
+是挑战关卡，才使用LimitBuildItemIdList字段
+不是挑战关卡，默认全部可建造</t>
+  </si>
+  <si>
+    <t>可建造项列表
+cfg_MapBuildItem_建造项数据</t>
+  </si>
+  <si>
+    <t>LimitLv</t>
+  </si>
+  <si>
+    <t>IsChallenge</t>
+  </si>
+  <si>
+    <t>LimitBuildItemIdList</t>
   </si>
   <si>
     <t>BOOL</t>
-  </si>
-  <si>
-    <t>刷新点测试</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>(40,40)</t>
-  </si>
-  <si>
-    <t>1|2</t>
-  </si>
-  <si>
-    <t>(0,0)</t>
-  </si>
-  <si>
-    <t>这个点用来配置地图波数配置
-数据不想填就写 #BASEVALUE</t>
-  </si>
-  <si>
-    <t>刷怪点id</t>
-  </si>
-  <si>
-    <t>波次Id
-（波数从1开始，一直
-到各刷新点中存在的
-最大波数为止）</t>
-  </si>
-  <si>
-    <t>波次名称</t>
-  </si>
-  <si>
-    <t>刷新类型
-0 不刷新怪
-1 固定方式 使用WaveData
-2 随机刷新 使用WaveRandData</t>
-  </si>
-  <si>
-    <t>刷新方式
-0 触发刷新，点击开始才刷新
-1.直接全部刷新
-2.定时刷新间隔</t>
-  </si>
-  <si>
-    <t>刷新提示</t>
-  </si>
-  <si>
-    <t>刷新数据列表
-(组序号,cfg_UnitBase的单位id，阵营id，数量)
-刷新方式为1，就是直接全部刷新
-刷新方式为2，就是从组序号1开始刷新
-每隔WaveTime帧刷新下一组
-注意！刷新数据列表1 和刷新数据列表2的组序号可以重复</t>
-  </si>
-  <si>
-    <t>刷新数据列表2
-(组序号，cfg_UnitGroupData_单位组配置的单位组id,阵营id)
-用于刷新一个单位组，单位组是特殊的集团
-统一行动，还有特殊编号
-刷新方式为1，就是直接全部刷新
-刷新方式为2，就是从组序号1开始刷新
-每隔WaveTime帧刷新下一组</t>
-  </si>
-  <si>
-    <t>波数随机刷新数据列表
-()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-一个组一个组
-定时刷新间隔时间
-单位帧</t>
-  </si>
-  <si>
-    <t>WaveId</t>
-  </si>
-  <si>
-    <t>WaveName</t>
-  </si>
-  <si>
-    <t>WaveType</t>
-  </si>
-  <si>
-    <t>WaveWay</t>
-  </si>
-  <si>
-    <t>WaveDes</t>
-  </si>
-  <si>
-    <t>WaveData</t>
-  </si>
-  <si>
-    <t>WaveData2</t>
-  </si>
-  <si>
-    <t>WaveRandData</t>
-  </si>
-  <si>
-    <t>WaveTime</t>
-  </si>
-  <si>
-    <t>第一波</t>
-  </si>
-  <si>
-    <t>直接全部刷新</t>
-  </si>
-  <si>
-    <t>(1,1001,1,1)</t>
-  </si>
-  <si>
-    <t>第二波</t>
-  </si>
-  <si>
-    <t>间隔刷新</t>
-  </si>
-  <si>
-    <t>(1,1001,1,1)|(2,1001,1,2)</t>
   </si>
   <si>
     <t>该表用于保存关卡UI数据
@@ -564,6 +349,9 @@
     <t>SHORT</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>短整数类型，用于表示一些比较小的整数 -32768 到 32767，少用</t>
   </si>
   <si>
@@ -678,6 +466,9 @@
     <t>&lt;(SHORT)&gt;</t>
   </si>
   <si>
+    <t>&lt;(INT)&gt;</t>
+  </si>
+  <si>
     <t>&lt;(LONG)&gt;</t>
   </si>
   <si>
@@ -696,9 +487,15 @@
     <t>语言id 是语言配置的id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>POINT</t>
   </si>
   <si>
+    <t>(0,0)</t>
+  </si>
+  <si>
     <t>保存小数二维坐标的类型</t>
   </si>
   <si>
@@ -709,6 +506,9 @@
   </si>
   <si>
     <t>语言id列表</t>
+  </si>
+  <si>
+    <t>1|2</t>
   </si>
   <si>
     <t>&lt;POINT&gt;</t>
@@ -796,7 +596,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,12 +632,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -991,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,12 +801,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF75BD42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,52 +1117,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1389,77 +1180,74 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,85 +1284,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1905,7 +1645,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1951,13 +1691,13 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -1979,7 +1719,7 @@
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
-      <c r="T1" s="38"/>
+      <c r="T1" s="22"/>
       <c r="U1" s="8"/>
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
@@ -2012,7 +1752,7 @@
       <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="13">
         <v>2</v>
       </c>
       <c r="I2" s="4">
@@ -2047,7 +1787,7 @@
       <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -2115,7 +1855,7 @@
       <c r="AD4" s="10"/>
       <c r="AE4" s="10"/>
     </row>
-    <row r="5" s="35" customFormat="1" ht="77.25" spans="1:23">
+    <row r="5" s="19" customFormat="1" ht="77.25" spans="1:23">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2140,7 +1880,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="35" t="str">
+      <c r="I5" s="19" t="str">
         <f>_xlfn.DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</f>
         <v>=DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</v>
       </c>
@@ -2162,119 +1902,121 @@
       <c r="W5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="1:23">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="W6" s="24"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="W6" s="14"/>
     </row>
     <row r="7" ht="14.25" spans="1:23">
-      <c r="A7" s="37"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="W7" s="14"/>
     </row>
     <row r="8" ht="14.25" spans="1:23">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="W8" s="14"/>
     </row>
     <row r="9" ht="14.25" spans="1:23">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="W9" s="24"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="W9" s="14"/>
     </row>
     <row r="10" ht="14.25" spans="1:23">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="W10" s="24"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="W10" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2293,8 +2035,8 @@
   <sheetPr/>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2314,37 +2056,37 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="99.75" spans="1:11">
       <c r="A1" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="33" t="s">
         <v>40</v>
       </c>
+      <c r="H1" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I1" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="33" t="s">
         <v>43</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
@@ -2360,10 +2102,10 @@
       <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="13">
         <v>2</v>
       </c>
       <c r="G2" s="4">
@@ -2390,31 +2132,31 @@
         <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
@@ -2443,7 +2185,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>25</v>
@@ -2466,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2477,8 +2219,8 @@
       <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>53</v>
+      <c r="I5" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="J5" s="5">
         <v>3</v>
@@ -2487,16 +2229,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" s="24" customFormat="1" ht="14.25"/>
-    <row r="7" s="24" customFormat="1" ht="14.25" spans="2:2">
-      <c r="B7" s="34"/>
-    </row>
-    <row r="8" s="24" customFormat="1" ht="14.25"/>
-    <row r="9" s="31" customFormat="1" ht="14.25" spans="2:2">
-      <c r="B9" s="24"/>
+    <row r="6" s="14" customFormat="1" ht="14.25"/>
+    <row r="7" s="14" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" s="14" customFormat="1" ht="14.25"/>
+    <row r="9" s="15" customFormat="1" ht="14.25" spans="2:2">
+      <c r="B9" s="14"/>
     </row>
     <row r="10" ht="14.25" spans="2:2">
-      <c r="B10" s="24"/>
+      <c r="B10" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2512,53 +2254,43 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="33.625" customWidth="1"/>
-    <col min="9" max="9" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="33.5166666666667" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="25.7333333333333" customWidth="1"/>
+    <col min="5" max="5" width="40.3083333333333" customWidth="1"/>
+    <col min="6" max="6" width="28.5916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="90" customHeight="1" spans="1:9">
+    <row r="1" ht="57" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" s="29" customFormat="1" ht="14.25" spans="1:9">
+    </row>
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
@@ -2568,26 +2300,17 @@
       <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="13">
         <v>2</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="13">
         <v>2</v>
       </c>
-      <c r="F2" s="29">
-        <v>2</v>
-      </c>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29">
+      <c r="F2" s="13">
         <v>3</v>
       </c>
-      <c r="I2" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="29" customFormat="1" ht="14.25" spans="1:9">
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -2595,28 +2318,19 @@
         <v>14</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" s="29" customFormat="1" ht="14.25" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -2630,22 +2344,13 @@
         <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:9">
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -2656,30 +2361,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="9:9">
-      <c r="I6" s="19"/>
+      <c r="F5" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2691,419 +2382,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="36.7666666666667" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="16.8416666666667" customWidth="1"/>
-    <col min="4" max="5" width="17.0583333333333" customWidth="1"/>
-    <col min="6" max="6" width="18.5833333333333" style="24" customWidth="1"/>
-    <col min="7" max="7" width="34.7833333333333" customWidth="1"/>
-    <col min="8" max="8" width="46.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="126" customHeight="1" spans="1:8">
-      <c r="A1" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" s="23" customFormat="1" spans="1:8">
-      <c r="A5" s="23">
-        <v>2</v>
-      </c>
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="23">
-        <v>2</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" s="24" customFormat="1"/>
-    <row r="7" s="19" customFormat="1"/>
-    <row r="8" s="24" customFormat="1"/>
-    <row r="9" s="24" customFormat="1"/>
-    <row r="10" s="24" customFormat="1"/>
-    <row r="11" s="24" customFormat="1"/>
-    <row r="12" s="24" customFormat="1"/>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="28.125" customWidth="1"/>
-    <col min="4" max="4" width="14.4583333333333" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="6" max="6" width="30.5833333333333" style="13" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="40.4333333333333" customWidth="1"/>
-    <col min="9" max="9" width="42.7833333333333" customWidth="1"/>
-    <col min="10" max="10" width="35.5833333333333" customWidth="1"/>
-    <col min="11" max="12" width="21.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="137" customHeight="1" spans="1:11">
-      <c r="A1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:11">
-      <c r="A2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11">
-        <v>2</v>
-      </c>
-      <c r="E2" s="11">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="22">
-        <v>2</v>
-      </c>
-      <c r="K2" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:11">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:11">
-      <c r="A4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A5" s="19">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="19">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" s="12" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A6" s="19">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19">
-        <v>2</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="19">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:H4 I4 J4:K4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3117,19 +2399,19 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="57" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:5">
@@ -3154,10 +2436,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
@@ -3191,13 +2473,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E38"/>
@@ -3230,19 +2512,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3250,16 +2532,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3267,16 +2549,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3287,13 +2569,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3301,16 +2583,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3318,16 +2600,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3339,10 +2621,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3350,16 +2632,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3367,16 +2649,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3387,13 +2669,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3401,16 +2683,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3418,16 +2700,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3435,13 +2717,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3449,10 +2731,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3460,10 +2742,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3471,10 +2753,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3482,10 +2764,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3493,10 +2775,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3504,10 +2786,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3515,10 +2797,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3526,10 +2808,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3537,10 +2819,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3548,10 +2830,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3559,10 +2841,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3570,10 +2852,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3581,16 +2863,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3598,16 +2880,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3615,16 +2897,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3632,16 +2914,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3652,10 +2934,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3663,16 +2945,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3680,16 +2962,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3697,16 +2979,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3714,16 +2996,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3734,13 +3016,13 @@
         <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3748,14 +3030,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>202</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3763,11 +3045,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3775,16 +3057,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/地图相关/关卡刷怪相关/战役副本相关.xlsx
+++ b/配置文档/地图相关/关卡刷怪相关/战役副本相关.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" firstSheet="1" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_ChapterBase_战役基础数据" sheetId="1" r:id="rId1"/>
     <sheet name="cfg_ChapterCopyBase_战役关卡基础数据" sheetId="2" r:id="rId2"/>
     <sheet name="cfg_CopyBuildLimit_关卡建造限制" sheetId="8" r:id="rId3"/>
-    <sheet name="cfg_ChapterCopyUI_章节关卡UI数据" sheetId="4" r:id="rId4"/>
+    <sheet name="cfg_ChapterCopyUI_章节关卡描述数据" sheetId="4" r:id="rId4"/>
     <sheet name="数据类型" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="245">
   <si>
     <t>该表用于保存章节基本数据
 一个章节就是玩家可选的一个模式
@@ -190,7 +190,13 @@
     <t>#BASEVALUE</t>
   </si>
   <si>
-    <t>2o</t>
+    <t>战役二</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>这是一个专门用于demo的战役</t>
   </si>
   <si>
     <t>该表用于保存关卡基础数据
@@ -204,25 +210,25 @@
     <t>关卡id</t>
   </si>
   <si>
-    <t>关卡UIid</t>
+    <t>关卡模式
+1-常规
+2-挑战</t>
+  </si>
+  <si>
+    <t>关卡的描述数据id
+cfg_ChapterCopyUI_章节关卡描述数据</t>
   </si>
   <si>
     <t>关卡类型
 0 常规刷怪关</t>
   </si>
   <si>
-    <t>关卡所用地图类型
-1 固定地图
-2 随机地图</t>
-  </si>
-  <si>
-    <t>关卡所用地图id
-地图类型为1，使用地图生成.xlsx表的
-cfg_GenerateFixedMap_固定地图配置
-地图类型为2：
-地图生成.xlsx表的
-cfg_GenerateBottomMap_
-随机生成地图方式表id</t>
+    <t>地图文件名称，可以带文件夹
+默认路径在这里 Remnant Afterglow\map\
+举例：1.map
+2.map
+key/3.map
+无法仅填写#BASEVALUE</t>
   </si>
   <si>
     <t>关卡节点
@@ -231,8 +237,13 @@
   <si>
     <t xml:space="preserve">关卡在大地图上
 显示用节点id
-cfg_BigMapCell_大地图节点的id
+cfg_BigMapMaterial_大地图节点的id
 </t>
+  </si>
+  <si>
+    <t>全局属性模板Id列表
+每帧运行一次
+cfg_GlobalAttrTem_属性模板表</t>
   </si>
   <si>
     <t xml:space="preserve">后继关卡id列表
@@ -251,10 +262,7 @@
     <t>#CopyType</t>
   </si>
   <si>
-    <t>MapType</t>
-  </si>
-  <si>
-    <t>GenerateMapId</t>
+    <t>MapName</t>
   </si>
   <si>
     <t>Pos</t>
@@ -263,13 +271,232 @@
     <t>NodeId</t>
   </si>
   <si>
+    <t>GloTemList</t>
+  </si>
+  <si>
     <t>CopyIdList</t>
   </si>
   <si>
     <t>Vector2I</t>
   </si>
   <si>
+    <t>教程0-1.map</t>
+  </si>
+  <si>
     <t>(2,2)</t>
+  </si>
+  <si>
+    <t>教程0-2.map</t>
+  </si>
+  <si>
+    <t>(1,1)</t>
+  </si>
+  <si>
+    <t>教程0-4.map</t>
+  </si>
+  <si>
+    <t>(3,1)</t>
+  </si>
+  <si>
+    <t>沙漏.map</t>
+  </si>
+  <si>
+    <t>(2,1)</t>
+  </si>
+  <si>
+    <t>1-1战役模式-常规-初启协议.map</t>
+  </si>
+  <si>
+    <t>(4,1)</t>
+  </si>
+  <si>
+    <t>1-2战役模式-常规-网格枢纽.map</t>
+  </si>
+  <si>
+    <t>(5,1)</t>
+  </si>
+  <si>
+    <t>1-3战役模式-常规-怨灵水晶.map</t>
+  </si>
+  <si>
+    <t>(6,2)</t>
+  </si>
+  <si>
+    <t>1-4战役模式-常规-棱镜之井.map</t>
+  </si>
+  <si>
+    <t>(5,3)</t>
+  </si>
+  <si>
+    <t>1-5战役模式-常规-钢铁洪流.map</t>
+  </si>
+  <si>
+    <t>(4,3)</t>
+  </si>
+  <si>
+    <t>1-6战役模式-常规-重炮破晓.map</t>
+  </si>
+  <si>
+    <t>(4,2)</t>
+  </si>
+  <si>
+    <t>1-7战役模式-常规-次元岛装置.map</t>
+  </si>
+  <si>
+    <t>(5,2)</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
+    <t>6-11</t>
+  </si>
+  <si>
+    <t>6-12</t>
   </si>
   <si>
     <t>限制建筑最高等级
@@ -301,25 +528,61 @@
 数据不想填就写 #BASEVALUE</t>
   </si>
   <si>
-    <t>关卡名称</t>
-  </si>
-  <si>
-    <t>关卡描述文字1</t>
-  </si>
-  <si>
-    <t>关卡描述文字2</t>
+    <t>关卡UIid</t>
+  </si>
+  <si>
+    <t>任务名称</t>
+  </si>
+  <si>
+    <t>敌人信息和关卡要素</t>
+  </si>
+  <si>
+    <t>任务介绍</t>
   </si>
   <si>
     <t>CopyName</t>
   </si>
   <si>
-    <t>第一章第一关</t>
-  </si>
-  <si>
-    <t>描述1</t>
-  </si>
-  <si>
-    <t>描述2</t>
+    <t>1-1战役模式-常规-初启协议</t>
+  </si>
+  <si>
+    <t>一只[color=#ff0000]侦查部队[/color]已经抵达你工厂的门口，他们即将对你发动[color=#ff0000]攻击[/color]，如果放任不管的话，他们会摧毁并且窃取你的[color=#00ff00]核心[/color]，利用你数据库中的防御[color=#00ff00]建筑蓝图[/color]，做好防御准备。</t>
+  </si>
+  <si>
+    <t>1-2战役模式-常规-网格枢纽</t>
+  </si>
+  <si>
+    <t>敌人已经知晓了你的存在，他们马上就会派出更多的部队向你发起攻击，我们可以利用地面上的资源，建造更多的防御。</t>
+  </si>
+  <si>
+    <t>1-3战役模式-常规-怨灵水晶</t>
+  </si>
+  <si>
+    <t>敌人的残骸似乎可以提取出一种特殊的资源，同时一只含有大量的小型敌人正在对我们的基地发起攻击。</t>
+  </si>
+  <si>
+    <t>1-4战役模式-常规-棱镜之井</t>
+  </si>
+  <si>
+    <t>该区划内存在一座巨大的棱镜之井，通过占领该区划，可以开采加工成为专门破坏装甲的光子武器。</t>
+  </si>
+  <si>
+    <t>1-5战役模式-常规-钢铁洪流</t>
+  </si>
+  <si>
+    <t>检测到大量到敌方部队，他们即将出动成建制的作战部队，做好防御的准备。</t>
+  </si>
+  <si>
+    <t>1-6战役模式-常规-重炮破晓</t>
+  </si>
+  <si>
+    <t>敌人在不远处建立了数台开采设备，利用重炮，摧毁他们可以减少敌人的进攻时间。</t>
+  </si>
+  <si>
+    <t>1-7战役模式-常规-次元岛装置</t>
+  </si>
+  <si>
+    <t>本地的资源即将耗尽，敌人也发现了这一点，大量的敌人正在集结，我们需要逃离这个区域，坚持一段时间，支撑到核心次元传送充能完成。</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -596,7 +859,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +884,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -628,9 +897,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -785,7 +1073,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,7 +1088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,137 +1417,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1263,58 +1563,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1645,7 +2011,7 @@
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I16" sqref="I16:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1688,62 +2054,62 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="22"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="44"/>
       <c r="U1" s="8"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>2</v>
       </c>
       <c r="F2" s="4">
@@ -1752,7 +2118,7 @@
       <c r="G2" s="4">
         <v>2</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="20">
         <v>2</v>
       </c>
       <c r="I2" s="4">
@@ -1766,10 +2132,10 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="14.25" spans="1:12">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1787,7 +2153,7 @@
       <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1801,222 +2167,266 @@
       </c>
     </row>
     <row r="4" s="4" customFormat="1" ht="14.25" spans="1:31">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="K4" s="9"/>
+      <c r="L4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-    </row>
-    <row r="5" s="19" customFormat="1" ht="77.25" spans="1:23">
-      <c r="A5" s="5">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+    </row>
+    <row r="5" s="39" customFormat="1" ht="77.25" spans="1:23">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="I5" s="39" t="str">
+        <f t="shared" ref="I5:I7" si="0">_xlfn.DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</f>
+        <v>=DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="W5" s="21"/>
+    </row>
+    <row r="6" ht="77.25" spans="1:23">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+      <c r="H6" s="21">
         <v>2</v>
       </c>
-      <c r="I5" s="19" t="str">
-        <f>_xlfn.DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</f>
+      <c r="I6" s="39" t="str">
+        <f t="shared" si="0"/>
         <v>=DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:23">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="W6" s="14"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:23">
-      <c r="A7" s="21"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="W7" s="14"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="W6" s="43"/>
+    </row>
+    <row r="7" ht="179" spans="1:23">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>1</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2</v>
+      </c>
+      <c r="I7" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>=DISPIMG("ID_4F7A8073DA284D22BA006B9612BECC52",1)</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="W7" s="43"/>
     </row>
     <row r="8" ht="14.25" spans="1:23">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="W8" s="14"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="W8" s="43"/>
     </row>
     <row r="9" ht="14.25" spans="1:23">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="W9" s="14"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="W9" s="43"/>
     </row>
     <row r="10" ht="14.25" spans="1:23">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="W10" s="14"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="W10" s="43"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2033,216 +2443,888 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="33.5166666666667" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="25.7333333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="45.8583333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="24.375" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="1" max="1" width="33.5166666666667" style="27" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="27" customWidth="1"/>
+    <col min="3" max="4" width="20.375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="24.45" style="27" customWidth="1"/>
+    <col min="6" max="6" width="25.7333333333333" style="27" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="45.8583333333333" style="27" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="28" customWidth="1"/>
+    <col min="10" max="10" width="24.375" style="27" customWidth="1"/>
+    <col min="11" max="11" width="22.9833333333333" style="28" customWidth="1"/>
+    <col min="12" max="12" width="31" style="27" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="99.75" spans="1:11">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" s="22" customFormat="1" ht="85.5" spans="1:12">
+      <c r="A1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="H1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="31" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A2" s="10" t="s">
+      <c r="J1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" s="23" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="32">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32">
+        <v>1</v>
+      </c>
+      <c r="D2" s="33">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="33">
         <v>2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="33">
         <v>2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="32">
         <v>2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="23">
         <v>2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="23">
         <v>2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="23">
         <v>2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A3" s="10" t="s">
+    <row r="3" s="23" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="I3" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A4" s="10" t="s">
+      <c r="J3" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" s="23" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:11">
-      <c r="A5" s="5">
+      <c r="L4" s="32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="24" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="24">
+        <v>3</v>
+      </c>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" s="25" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A6" s="24">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24">
+        <v>2</v>
+      </c>
+      <c r="F6" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="24">
         <v>3</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="14.25"/>
-    <row r="7" s="14" customFormat="1" ht="14.25" spans="2:2">
-      <c r="B7" s="17"/>
-    </row>
-    <row r="8" s="14" customFormat="1" ht="14.25"/>
-    <row r="9" s="15" customFormat="1" ht="14.25" spans="2:2">
-      <c r="B9" s="14"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:2">
-      <c r="B10" s="14"/>
+    <row r="7" s="25" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A7" s="24">
+        <v>1</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="25">
+        <v>3</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>1</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="25">
+        <v>4</v>
+      </c>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" s="25" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="25">
+        <v>4</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="25">
+        <v>5</v>
+      </c>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:12">
+      <c r="A9" s="25">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25">
+        <v>3</v>
+      </c>
+      <c r="C9" s="25">
+        <v>101</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25">
+        <v>101</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1101</v>
+      </c>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" s="26" customFormat="1" ht="14.25" spans="1:12">
+      <c r="A10" s="25">
+        <v>1</v>
+      </c>
+      <c r="B10" s="25">
+        <v>3</v>
+      </c>
+      <c r="C10" s="25">
+        <v>102</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
+        <v>102</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="38">
+        <v>1102</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:12">
+      <c r="A11" s="25">
+        <v>1</v>
+      </c>
+      <c r="B11" s="25">
+        <v>3</v>
+      </c>
+      <c r="C11" s="25">
+        <v>103</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28">
+        <v>103</v>
+      </c>
+      <c r="F11" s="25">
+        <v>0</v>
+      </c>
+      <c r="G11" s="25">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="38">
+        <v>1103</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:12">
+      <c r="A12" s="25">
+        <v>1</v>
+      </c>
+      <c r="B12" s="25">
+        <v>3</v>
+      </c>
+      <c r="C12" s="25">
+        <v>104</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28">
+        <v>104</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1104</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:12">
+      <c r="A13" s="25">
+        <v>1</v>
+      </c>
+      <c r="B13" s="25">
+        <v>3</v>
+      </c>
+      <c r="C13" s="25">
+        <v>105</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28">
+        <v>105</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>1</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1105</v>
+      </c>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:12">
+      <c r="A14" s="25">
+        <v>1</v>
+      </c>
+      <c r="B14" s="25">
+        <v>3</v>
+      </c>
+      <c r="C14" s="25">
+        <v>106</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28">
+        <v>106</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="38">
+        <v>1106</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:12">
+      <c r="A15" s="25">
+        <v>1</v>
+      </c>
+      <c r="B15" s="25">
+        <v>3</v>
+      </c>
+      <c r="C15" s="25">
+        <v>107</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28">
+        <v>107</v>
+      </c>
+      <c r="F15" s="25">
+        <v>0</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1107</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:12">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="35"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:12">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="38"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:12">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="38"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:12">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:12">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="38"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:12">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:12">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="38"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:12">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="38"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41" s="36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="8:8">
+      <c r="H44" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8">
+      <c r="H45" s="36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="8:8">
+      <c r="H46" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8">
+      <c r="H47" s="36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="8:8">
+      <c r="H48" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="8:8">
+      <c r="H54" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8">
+      <c r="H55" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8">
+      <c r="H56" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8">
+      <c r="H57" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8">
+      <c r="H58" s="36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" s="36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="36" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4 G4:K4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:F4 I4:L4">
       <formula1>数据类型!$B$2:$B$56</formula1>
     </dataValidation>
   </dataValidations>
@@ -2254,15 +3336,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33.5166666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.5166666666667" style="16" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="25.7333333333333" customWidth="1"/>
@@ -2272,101 +3354,238 @@
   <sheetData>
     <row r="1" ht="57" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
         <v>2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="20">
         <v>2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>60</v>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:6">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5" s="21">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <v>5</v>
+      </c>
+      <c r="E5" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:6">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="D6" s="21">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="b">
+      <c r="E6" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:5">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>101</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="15">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
+        <v>103</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:5">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15">
+        <v>3</v>
+      </c>
+      <c r="C10" s="15">
+        <v>104</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:5">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:5">
+      <c r="A12" s="16">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15">
+        <v>106</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:5">
+      <c r="A13" s="16">
+        <v>1</v>
+      </c>
+      <c r="B13" s="15">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15">
+        <v>107</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2382,104 +3601,186 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="3" max="4" width="30.6" customWidth="1"/>
+    <col min="5" max="5" width="65.95" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="57" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>65</v>
+        <v>139</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
-        <v>2</v>
+      <c r="D2" s="10">
+        <v>0</v>
       </c>
       <c r="E2" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>45</v>
+      <c r="B3" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A4" s="10" t="s">
+    </row>
+    <row r="4" s="4" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>69</v>
+    </row>
+    <row r="5" ht="57" spans="1:5">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
+        <v>101</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" s="15">
+        <v>102</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:5">
+      <c r="A7" s="14">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>103</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:5">
+      <c r="A8" s="14">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18">
+        <v>104</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:5">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18">
+        <v>105</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:5">
+      <c r="A10" s="14">
+        <v>1</v>
+      </c>
+      <c r="B10" s="18">
+        <v>106</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:5">
+      <c r="A11" s="14">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18">
+        <v>107</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2499,7 +3800,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2512,19 +3813,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2532,16 +3833,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2549,16 +3850,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2569,13 +3870,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2583,16 +3884,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2600,16 +3901,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2621,10 +3922,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2632,16 +3933,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2649,16 +3950,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2669,13 +3970,13 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2683,16 +3984,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2700,16 +4001,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2717,13 +4018,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2731,10 +4032,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2742,10 +4043,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2753,10 +4054,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>112</v>
+        <v>199</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2764,10 +4065,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2775,10 +4076,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2786,10 +4087,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2797,10 +4098,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2808,10 +4109,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2819,10 +4120,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2830,10 +4131,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2841,10 +4142,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2852,10 +4153,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>121</v>
+        <v>208</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2863,16 +4164,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2880,16 +4181,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2897,16 +4198,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2914,16 +4215,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>135</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2934,10 +4235,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2945,16 +4246,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2962,16 +4263,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>228</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2979,16 +4280,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2996,16 +4297,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>147</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3016,13 +4317,13 @@
         <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>149</v>
+        <v>236</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3030,14 +4331,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3045,11 +4346,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>154</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3057,16 +4358,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
